--- a/03.設計/詳細設計書_STB06（ITEM）.xlsx
+++ b/03.設計/詳細設計書_STB06（ITEM）.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>プロジェクト番号</t>
     <rPh sb="6" eb="8">
@@ -314,133 +314,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・上記以外の場合</t>
-    <rPh sb="1" eb="5">
-      <t>ジョウキイガイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・赤プレイヤー かつ 移動方向が壁の場合</t>
-    <rPh sb="1" eb="2">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>イドウホウコウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・移動方向が壁、端の壁以外の場合</t>
-    <rPh sb="1" eb="5">
-      <t>イドウホウコウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・ヒット時のSEを再生</t>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・壁ブロックを通路に変更</t>
-    <rPh sb="1" eb="2">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツウロ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・壁破壊ポイント数を -1 する</t>
-    <rPh sb="1" eb="2">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・壁破壊ポイント数が0の場合</t>
-    <rPh sb="1" eb="4">
-      <t>カベハカイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・アイテムの効果を無効化する（）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>キー入力が左の場合</t>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・プレイヤーのX軸座標を -1 する</t>
-    <rPh sb="8" eb="9">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>詳細設計書_06_ITEM</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -658,6 +531,210 @@
   </si>
   <si>
     <t>TM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アイテム使用判定フラグをTrueに設定</t>
+    <rPh sb="5" eb="9">
+      <t>シヨウハンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・所持アイテム数（配列）の該当要素を -1 する</t>
+    <rPh sb="13" eb="15">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・使用中の別のアイテム効果を無効化する（06_ITEM.&lt;アイテム無効化&gt;）</t>
+    <rPh sb="1" eb="4">
+      <t>シヨウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ムコウカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;アイテム無効化&gt;</t>
+    <rPh sb="5" eb="8">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用中のアイテムを無効化する</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム使用判定フラグ</t>
+    <rPh sb="4" eb="8">
+      <t>シヨウハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定値</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム使用時間</t>
+    <rPh sb="4" eb="8">
+      <t>シヨウジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーカラー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>視界制限</t>
+    <rPh sb="0" eb="4">
+      <t>シカイセイゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;アイテム生成判定&gt;</t>
+    <rPh sb="5" eb="9">
+      <t>セイセイハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フィールド上のアイテム数をカウント</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・1でカウントしたアイテム数がアイテム最大値未満 かつ アイテム再生成クールタイムが1以上の場合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生成判定</t>
+    <rPh sb="0" eb="4">
+      <t>セイセイハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アイテム再生成クールタイムを -1 する</t>
+    <rPh sb="5" eb="8">
+      <t>サイセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・1でカウントしたアイテム数がアイテム最大値未満 かつ アイテム再生成クールタイムが0の場合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・フィールド上にアイテムを生成（09_SGS.&lt;オブジェクトセット&gt;）</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アイテム再生成クールタイムを15秒に設定する</t>
+    <rPh sb="5" eb="8">
+      <t>サイセイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;アイテム種類番号取得&gt;</t>
+    <rPh sb="5" eb="11">
+      <t>シュルイバンゴウシュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>引数：</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイテム番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[小数点以下の数字-1]を抽出</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -748,7 +825,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,12 +841,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1262,7 +1333,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,13 +1348,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,6 +1467,12 @@
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1794,7 +1871,7 @@
     <row r="7" spans="3:16" ht="49.2" customHeight="1">
       <c r="C7" s="7"/>
       <c r="D7" s="74" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
@@ -1882,7 +1959,7 @@
       </c>
       <c r="G15" s="76"/>
       <c r="H15" s="77" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I15" s="78"/>
       <c r="J15" s="78"/>
@@ -2083,7 +2160,7 @@
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="85" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="85" t="s">
@@ -2577,11 +2654,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ69"/>
+  <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+      <selection pane="bottomLeft" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -2753,7 +2830,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="19"/>
@@ -2773,7 +2850,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="19"/>
@@ -2793,7 +2870,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="19"/>
@@ -2813,7 +2890,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="19"/>
@@ -3167,7 +3244,7 @@
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -3252,7 +3329,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G20" s="17"/>
       <c r="AC20" s="27"/>
@@ -3267,33 +3344,33 @@
     <row r="21" spans="1:36" ht="15" customHeight="1">
       <c r="A21" s="56"/>
       <c r="B21" s="66" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C21" s="67"/>
       <c r="D21" s="68" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="70"/>
       <c r="G21" s="68" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H21" s="69"/>
       <c r="I21" s="70"/>
       <c r="J21" s="68" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K21" s="69"/>
       <c r="L21" s="69"/>
       <c r="M21" s="70"/>
       <c r="N21" s="68" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O21" s="69"/>
       <c r="P21" s="69"/>
       <c r="Q21" s="70"/>
       <c r="R21" s="68" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S21" s="69"/>
       <c r="T21" s="69"/>
@@ -3314,29 +3391,29 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="72" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="59"/>
       <c r="G22" s="72" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H22" s="71"/>
       <c r="I22" s="59"/>
       <c r="J22" s="72" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
       <c r="M22" s="59"/>
       <c r="N22" s="72" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O22" s="71"/>
       <c r="P22" s="71"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="72" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="S22" s="71"/>
       <c r="T22" s="71"/>
@@ -3356,23 +3433,23 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="72" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E23" s="71"/>
       <c r="F23" s="59"/>
       <c r="G23" s="72" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H23" s="71"/>
       <c r="I23" s="59"/>
       <c r="J23" s="72" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K23" s="71"/>
       <c r="L23" s="71"/>
       <c r="M23" s="59"/>
       <c r="N23" s="72" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O23" s="71"/>
       <c r="P23" s="71"/>
@@ -3380,7 +3457,7 @@
       <c r="R23" s="72"/>
       <c r="S23" s="71"/>
       <c r="T23" s="71" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="U23" s="59"/>
       <c r="AC23" s="61"/>
@@ -3398,23 +3475,23 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="72" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E24" s="71"/>
       <c r="F24" s="59"/>
       <c r="G24" s="72" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H24" s="71"/>
       <c r="I24" s="59"/>
       <c r="J24" s="72" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K24" s="71"/>
       <c r="L24" s="71"/>
       <c r="M24" s="59"/>
       <c r="N24" s="72" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="O24" s="71"/>
       <c r="P24" s="71"/>
@@ -3422,7 +3499,7 @@
       <c r="R24" s="72"/>
       <c r="S24" s="71"/>
       <c r="T24" s="71" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="U24" s="59"/>
       <c r="AC24" s="61"/>
@@ -3440,29 +3517,29 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E25" s="71"/>
       <c r="F25" s="59"/>
       <c r="G25" s="72" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H25" s="71"/>
       <c r="I25" s="59"/>
       <c r="J25" s="72" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K25" s="71"/>
       <c r="L25" s="71"/>
       <c r="M25" s="59"/>
       <c r="N25" s="72" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O25" s="71"/>
       <c r="P25" s="71"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="72" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
@@ -3483,23 +3560,23 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="72" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="59"/>
       <c r="G26" s="72" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H26" s="71"/>
       <c r="I26" s="59"/>
       <c r="J26" s="72" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K26" s="71"/>
       <c r="L26" s="71"/>
       <c r="M26" s="59"/>
       <c r="N26" s="72" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O26" s="71"/>
       <c r="P26" s="71"/>
@@ -3507,7 +3584,7 @@
       <c r="R26" s="72"/>
       <c r="S26" s="71"/>
       <c r="T26" s="71" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="U26" s="59"/>
       <c r="AC26" s="61"/>
@@ -3521,6 +3598,28 @@
     </row>
     <row r="27" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="60"/>
+      <c r="B27" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
       <c r="AC27" s="61"/>
       <c r="AD27" s="62"/>
       <c r="AE27" s="63"/>
@@ -3532,6 +3631,9 @@
     </row>
     <row r="28" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="60"/>
+      <c r="B28" s="44" t="s">
+        <v>73</v>
+      </c>
       <c r="AC28" s="61"/>
       <c r="AD28" s="62"/>
       <c r="AE28" s="63"/>
@@ -3543,6 +3645,9 @@
     </row>
     <row r="29" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="60"/>
+      <c r="B29" s="44" t="s">
+        <v>74</v>
+      </c>
       <c r="AC29" s="61"/>
       <c r="AD29" s="62"/>
       <c r="AE29" s="63"/>
@@ -3575,7 +3680,9 @@
       <c r="AJ31" s="61"/>
     </row>
     <row r="32" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="60"/>
+      <c r="A32" s="65" t="s">
+        <v>76</v>
+      </c>
       <c r="AC32" s="61"/>
       <c r="AD32" s="62"/>
       <c r="AE32" s="63"/>
@@ -3586,7 +3693,12 @@
       <c r="AJ32" s="61"/>
     </row>
     <row r="33" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="60"/>
+      <c r="A33" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>77</v>
+      </c>
       <c r="AC33" s="61"/>
       <c r="AD33" s="62"/>
       <c r="AE33" s="63"/>
@@ -3598,6 +3710,18 @@
     </row>
     <row r="34" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="60"/>
+      <c r="B34" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
       <c r="AC34" s="61"/>
       <c r="AD34" s="62"/>
       <c r="AE34" s="63"/>
@@ -3609,6 +3733,18 @@
     </row>
     <row r="35" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="60"/>
+      <c r="B35" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="71"/>
+      <c r="I35" s="59"/>
       <c r="AC35" s="61"/>
       <c r="AD35" s="62"/>
       <c r="AE35" s="63"/>
@@ -3620,6 +3756,18 @@
     </row>
     <row r="36" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="60"/>
+      <c r="B36" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="71"/>
+      <c r="I36" s="59"/>
       <c r="AC36" s="61"/>
       <c r="AD36" s="62"/>
       <c r="AE36" s="63"/>
@@ -3631,6 +3779,18 @@
     </row>
     <row r="37" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="60"/>
+      <c r="B37" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="71"/>
+      <c r="I37" s="59"/>
       <c r="AC37" s="61"/>
       <c r="AD37" s="62"/>
       <c r="AE37" s="63"/>
@@ -3642,6 +3802,18 @@
     </row>
     <row r="38" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="60"/>
+      <c r="B38" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="71"/>
+      <c r="I38" s="59"/>
       <c r="AC38" s="61"/>
       <c r="AD38" s="62"/>
       <c r="AE38" s="63"/>
@@ -3674,7 +3846,9 @@
       <c r="AJ40" s="61"/>
     </row>
     <row r="41" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="60"/>
+      <c r="A41" s="65" t="s">
+        <v>87</v>
+      </c>
       <c r="AC41" s="61"/>
       <c r="AD41" s="62"/>
       <c r="AE41" s="63"/>
@@ -3685,7 +3859,12 @@
       <c r="AJ41" s="61"/>
     </row>
     <row r="42" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="60"/>
+      <c r="A42" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>88</v>
+      </c>
       <c r="AC42" s="61"/>
       <c r="AD42" s="62"/>
       <c r="AE42" s="63"/>
@@ -3707,7 +3886,12 @@
       <c r="AJ43" s="61"/>
     </row>
     <row r="44" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="60"/>
+      <c r="A44" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="AC44" s="61"/>
       <c r="AD44" s="62"/>
       <c r="AE44" s="63"/>
@@ -3719,6 +3903,9 @@
     </row>
     <row r="45" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="60"/>
+      <c r="B45" s="44" t="s">
+        <v>90</v>
+      </c>
       <c r="AC45" s="61"/>
       <c r="AD45" s="62"/>
       <c r="AE45" s="63"/>
@@ -3730,6 +3917,9 @@
     </row>
     <row r="46" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="60"/>
+      <c r="C46" s="44" t="s">
+        <v>92</v>
+      </c>
       <c r="AC46" s="61"/>
       <c r="AD46" s="62"/>
       <c r="AE46" s="63"/>
@@ -3741,6 +3931,9 @@
     </row>
     <row r="47" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="60"/>
+      <c r="B47" s="44" t="s">
+        <v>93</v>
+      </c>
       <c r="AC47" s="61"/>
       <c r="AD47" s="62"/>
       <c r="AE47" s="63"/>
@@ -3752,6 +3945,9 @@
     </row>
     <row r="48" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="60"/>
+      <c r="C48" s="44" t="s">
+        <v>94</v>
+      </c>
       <c r="AC48" s="61"/>
       <c r="AD48" s="62"/>
       <c r="AE48" s="63"/>
@@ -3763,6 +3959,9 @@
     </row>
     <row r="49" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="60"/>
+      <c r="C49" s="44" t="s">
+        <v>95</v>
+      </c>
       <c r="AC49" s="61"/>
       <c r="AD49" s="62"/>
       <c r="AE49" s="63"/>
@@ -3795,7 +3994,9 @@
       <c r="AJ51" s="61"/>
     </row>
     <row r="52" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="60"/>
+      <c r="A52" s="65" t="s">
+        <v>96</v>
+      </c>
       <c r="AC52" s="61"/>
       <c r="AD52" s="62"/>
       <c r="AE52" s="63"/>
@@ -3806,7 +4007,12 @@
       <c r="AJ52" s="61"/>
     </row>
     <row r="53" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="60"/>
+      <c r="A53" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>98</v>
+      </c>
       <c r="AC53" s="61"/>
       <c r="AD53" s="62"/>
       <c r="AE53" s="63"/>
@@ -3817,7 +4023,12 @@
       <c r="AJ53" s="61"/>
     </row>
     <row r="54" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="60"/>
+      <c r="A54" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>99</v>
+      </c>
       <c r="AC54" s="61"/>
       <c r="AD54" s="62"/>
       <c r="AE54" s="63"/>
@@ -3838,245 +4049,43 @@
       <c r="AI55" s="63"/>
       <c r="AJ55" s="61"/>
     </row>
-    <row r="56" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="60"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="63"/>
-      <c r="AF56" s="63"/>
-      <c r="AG56" s="63"/>
-      <c r="AH56" s="63"/>
-      <c r="AI56" s="63"/>
-      <c r="AJ56" s="61"/>
-    </row>
-    <row r="57" spans="1:36" ht="15" customHeight="1">
-      <c r="A57" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="41"/>
-      <c r="AF57" s="41"/>
-      <c r="AG57" s="41"/>
-      <c r="AH57" s="41"/>
-      <c r="AI57" s="41"/>
-      <c r="AJ57" s="27"/>
-    </row>
-    <row r="58" spans="1:36" ht="15" customHeight="1">
-      <c r="A58" s="56"/>
-      <c r="B58" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G58" s="17"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="41"/>
-      <c r="AF58" s="41"/>
-      <c r="AG58" s="41"/>
-      <c r="AH58" s="41"/>
-      <c r="AI58" s="41"/>
-      <c r="AJ58" s="27"/>
-    </row>
-    <row r="59" spans="1:36" ht="15" customHeight="1">
-      <c r="A59" s="56"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="17"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="41"/>
-      <c r="AF59" s="41"/>
-      <c r="AG59" s="41"/>
-      <c r="AH59" s="41"/>
-      <c r="AI59" s="41"/>
-      <c r="AJ59" s="27"/>
-    </row>
-    <row r="60" spans="1:36" ht="15" customHeight="1">
-      <c r="A60" s="56"/>
-      <c r="B60" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="17"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="41"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="41"/>
-      <c r="AI60" s="41"/>
-      <c r="AJ60" s="27"/>
-    </row>
-    <row r="61" spans="1:36" ht="15" customHeight="1">
-      <c r="A61" s="56"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="26"/>
-      <c r="AE61" s="41"/>
-      <c r="AF61" s="41"/>
-      <c r="AG61" s="41"/>
-      <c r="AH61" s="41"/>
-      <c r="AI61" s="41"/>
-      <c r="AJ61" s="27"/>
-    </row>
-    <row r="62" spans="1:36" ht="15" customHeight="1">
-      <c r="A62" s="56"/>
-      <c r="B62" s="17"/>
-      <c r="D62" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" s="17"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="41"/>
-      <c r="AF62" s="41"/>
-      <c r="AG62" s="41"/>
-      <c r="AH62" s="41"/>
-      <c r="AI62" s="41"/>
-      <c r="AJ62" s="27"/>
-    </row>
-    <row r="63" spans="1:36" ht="15" customHeight="1">
-      <c r="A63" s="56"/>
-      <c r="B63" s="17"/>
-      <c r="D63" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="17"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="26"/>
-      <c r="AE63" s="41"/>
-      <c r="AF63" s="41"/>
-      <c r="AG63" s="41"/>
-      <c r="AH63" s="41"/>
-      <c r="AI63" s="41"/>
-      <c r="AJ63" s="27"/>
-    </row>
-    <row r="64" spans="1:36" ht="15" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="17"/>
-      <c r="D64" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G64" s="17"/>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="26"/>
-      <c r="AE64" s="41"/>
-      <c r="AF64" s="41"/>
-      <c r="AG64" s="41"/>
-      <c r="AH64" s="41"/>
-      <c r="AI64" s="41"/>
-      <c r="AJ64" s="27"/>
-    </row>
-    <row r="65" spans="1:36" ht="15" customHeight="1">
-      <c r="A65" s="56"/>
-      <c r="B65" s="17"/>
-      <c r="D65" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="17"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="26"/>
-      <c r="AE65" s="41"/>
-      <c r="AF65" s="41"/>
-      <c r="AG65" s="41"/>
-      <c r="AH65" s="41"/>
-      <c r="AI65" s="41"/>
-      <c r="AJ65" s="27"/>
-    </row>
-    <row r="66" spans="1:36" ht="15" customHeight="1">
-      <c r="A66" s="56"/>
-      <c r="B66" s="17"/>
-      <c r="D66" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" s="17"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="41"/>
-      <c r="AF66" s="41"/>
-      <c r="AG66" s="41"/>
-      <c r="AH66" s="41"/>
-      <c r="AI66" s="41"/>
-      <c r="AJ66" s="27"/>
-    </row>
-    <row r="67" spans="1:36" ht="15" customHeight="1">
-      <c r="A67" s="56"/>
-      <c r="B67" s="17"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="26"/>
-      <c r="AE67" s="41"/>
-      <c r="AF67" s="41"/>
-      <c r="AG67" s="41"/>
-      <c r="AH67" s="41"/>
-      <c r="AI67" s="41"/>
-      <c r="AJ67" s="27"/>
-    </row>
-    <row r="68" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="60"/>
-      <c r="AC68" s="61"/>
-      <c r="AD68" s="62"/>
-      <c r="AE68" s="63"/>
-      <c r="AF68" s="63"/>
-      <c r="AG68" s="63"/>
-      <c r="AH68" s="63"/>
-      <c r="AI68" s="63"/>
-      <c r="AJ68" s="61"/>
-    </row>
-    <row r="69" spans="1:36" ht="15" customHeight="1">
-      <c r="A69" s="57"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="31"/>
-      <c r="AD69" s="28"/>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30"/>
-      <c r="AG69" s="30"/>
-      <c r="AH69" s="30"/>
-      <c r="AI69" s="30"/>
-      <c r="AJ69" s="31"/>
+    <row r="56" spans="1:36" ht="15" customHeight="1">
+      <c r="A56" s="57"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="30"/>
+      <c r="AG56" s="30"/>
+      <c r="AH56" s="30"/>
+      <c r="AI56" s="30"/>
+      <c r="AJ56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/03.設計/詳細設計書_STB06（ITEM）.xlsx
+++ b/03.設計/詳細設計書_STB06（ITEM）.xlsx
@@ -1360,6 +1360,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1381,6 +1387,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1390,29 +1420,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1432,15 +1453,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1458,21 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1854,34 +1854,34 @@
     </row>
     <row r="6" spans="3:16" ht="49.2" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="3:16" ht="49.2" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1900,80 +1900,80 @@
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="11" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77" t="s">
+      <c r="G11" s="78"/>
+      <c r="H11" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="75" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="76"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="78"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77" t="s">
+      <c r="G14" s="78"/>
+      <c r="H14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77" t="s">
+      <c r="G15" s="78"/>
+      <c r="H15" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="79"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="81"/>
       <c r="N16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2048,58 +2048,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
       <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="89" t="str">
+      <c r="Q1" s="85" t="str">
         <f>D5</f>
         <v>TM</v>
       </c>
-      <c r="R1" s="89"/>
+      <c r="R1" s="85"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="90">
+      <c r="Q2" s="86">
         <f>B5</f>
         <v>45170</v>
       </c>
-      <c r="R2" s="89"/>
+      <c r="R2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="20"/>
@@ -2125,435 +2125,435 @@
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="87"/>
+      <c r="F4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="88">
         <v>45170</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="E5" s="89"/>
+      <c r="F5" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2564,6 +2564,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:O2"/>
     <mergeCell ref="Q1:R1"/>
@@ -2572,78 +2644,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2673,112 +2673,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="104" t="str">
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="109" t="str">
         <f>表紙!D6</f>
         <v>Street Biter (STB)</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="98" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="108" t="str">
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="95" t="str">
         <f>更新履歴!D5</f>
         <v>TM</v>
       </c>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108" t="s">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="107" t="str">
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="94" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
         <v>TM</v>
       </c>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101" t="str">
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="106" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>06_ITEM</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="98" t="s">
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="109">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="96">
         <f>更新履歴!B5</f>
         <v>45170</v>
       </c>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="108" t="s">
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="109">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="96">
         <f>MAX(更新履歴!B:B)</f>
         <v>45170</v>
       </c>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="35"/>
@@ -3602,21 +3602,21 @@
         <v>75</v>
       </c>
       <c r="C27" s="41"/>
-      <c r="D27" s="110"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="110"/>
+      <c r="G27" s="74"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="110"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
-      <c r="N27" s="110"/>
+      <c r="N27" s="74"/>
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="41"/>
-      <c r="R27" s="110"/>
+      <c r="R27" s="74"/>
       <c r="S27" s="41"/>
       <c r="T27" s="41"/>
       <c r="U27" s="41"/>
@@ -3886,7 +3886,7 @@
       <c r="AJ43" s="61"/>
     </row>
     <row r="44" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="75" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="44" t="s">
@@ -4089,6 +4089,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I2:X2"/>
+    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AA1:AD1"/>
@@ -4097,11 +4102,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I2:X2"/>
-    <mergeCell ref="I1:X1"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/03.設計/詳細設計書_STB06（ITEM）.xlsx
+++ b/03.設計/詳細設計書_STB06（ITEM）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP_source\03.設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP\03.設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9960" tabRatio="888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13200" tabRatio="888"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
@@ -526,14 +526,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・アイテム使用判定フラグをTrueに設定</t>
     <rPh sb="5" eb="9">
       <t>シヨウハンテイ</t>
@@ -735,6 +727,14 @@
   </si>
   <si>
     <t>[小数点以下の数字-1]を抽出</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MT</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1387,6 +1387,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,23 +1420,50 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1428,51 +1473,6 @@
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="G15" s="78"/>
       <c r="H15" s="79" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
@@ -2048,58 +2048,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
       <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="85" t="str">
+      <c r="Q1" s="91" t="str">
         <f>D5</f>
-        <v>TM</v>
-      </c>
-      <c r="R1" s="85"/>
+        <v>MT</v>
+      </c>
+      <c r="R1" s="91"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
       <c r="P2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="86">
+      <c r="Q2" s="92">
         <f>B5</f>
         <v>45170</v>
       </c>
-      <c r="R2" s="85"/>
+      <c r="R2" s="91"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="20"/>
@@ -2125,435 +2125,435 @@
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="86">
         <v>45170</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2564,6 +2564,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -2572,78 +2644,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2673,112 +2673,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="97" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="109" t="str">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="106" t="str">
         <f>表紙!D6</f>
         <v>Street Biter (STB)</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="97" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="95" t="str">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="110" t="str">
         <f>更新履歴!D5</f>
-        <v>TM</v>
-      </c>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95" t="s">
+        <v>MT</v>
+      </c>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="94" t="str">
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="109" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>TM</v>
-      </c>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
+        <v>MT</v>
+      </c>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="97" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="106" t="str">
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>06_ITEM</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="97" t="s">
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="96">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="111">
         <f>更新履歴!B5</f>
         <v>45170</v>
       </c>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="95" t="s">
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="96">
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="111">
         <f>MAX(更新履歴!B:B)</f>
         <v>45170</v>
       </c>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="111"/>
+      <c r="AJ2" s="111"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="35"/>
@@ -3599,7 +3599,7 @@
     <row r="27" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="60"/>
       <c r="B27" s="44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="74"/>
@@ -3632,7 +3632,7 @@
     <row r="28" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="60"/>
       <c r="B28" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC28" s="61"/>
       <c r="AD28" s="62"/>
@@ -3646,7 +3646,7 @@
     <row r="29" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="60"/>
       <c r="B29" s="44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC29" s="61"/>
       <c r="AD29" s="62"/>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="32" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC32" s="61"/>
       <c r="AD32" s="62"/>
@@ -3697,7 +3697,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AC33" s="61"/>
       <c r="AD33" s="62"/>
@@ -3711,14 +3711,14 @@
     <row r="34" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="60"/>
       <c r="B34" s="66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
       <c r="F34" s="67"/>
       <c r="G34" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H34" s="69"/>
       <c r="I34" s="70"/>
@@ -3734,14 +3734,14 @@
     <row r="35" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="60"/>
       <c r="B35" s="73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
       <c r="G35" s="72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H35" s="71"/>
       <c r="I35" s="59"/>
@@ -3757,14 +3757,14 @@
     <row r="36" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="60"/>
       <c r="B36" s="73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="71"/>
       <c r="G36" s="72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H36" s="71"/>
       <c r="I36" s="59"/>
@@ -3780,14 +3780,14 @@
     <row r="37" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="60"/>
       <c r="B37" s="73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="71"/>
       <c r="E37" s="71"/>
       <c r="F37" s="71"/>
       <c r="G37" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H37" s="71"/>
       <c r="I37" s="59"/>
@@ -3803,14 +3803,14 @@
     <row r="38" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="60"/>
       <c r="B38" s="73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
       <c r="E38" s="71"/>
       <c r="F38" s="71"/>
       <c r="G38" s="72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="71"/>
       <c r="I38" s="59"/>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="41" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC41" s="61"/>
       <c r="AD41" s="62"/>
@@ -3863,7 +3863,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC42" s="61"/>
       <c r="AD42" s="62"/>
@@ -3887,10 +3887,10 @@
     </row>
     <row r="44" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>89</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="AC44" s="61"/>
       <c r="AD44" s="62"/>
@@ -3904,7 +3904,7 @@
     <row r="45" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="60"/>
       <c r="B45" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AC45" s="61"/>
       <c r="AD45" s="62"/>
@@ -3918,7 +3918,7 @@
     <row r="46" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="60"/>
       <c r="C46" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AC46" s="61"/>
       <c r="AD46" s="62"/>
@@ -3932,7 +3932,7 @@
     <row r="47" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="60"/>
       <c r="B47" s="44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AC47" s="61"/>
       <c r="AD47" s="62"/>
@@ -3946,7 +3946,7 @@
     <row r="48" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="60"/>
       <c r="C48" s="44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC48" s="61"/>
       <c r="AD48" s="62"/>
@@ -3960,7 +3960,7 @@
     <row r="49" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="60"/>
       <c r="C49" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC49" s="61"/>
       <c r="AD49" s="62"/>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="52" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AC52" s="61"/>
       <c r="AD52" s="62"/>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="53" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC53" s="61"/>
       <c r="AD53" s="62"/>
@@ -4027,7 +4027,7 @@
         <v>33</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC54" s="61"/>
       <c r="AD54" s="62"/>
@@ -4089,11 +4089,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I2:X2"/>
-    <mergeCell ref="I1:X1"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AA1:AD1"/>
@@ -4102,6 +4097,11 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I2:X2"/>
+    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
